--- a/dataFiles/file_Q2.xlsx
+++ b/dataFiles/file_Q2.xlsx
@@ -37,49 +37,49 @@
     <t>RESEARCH</t>
   </si>
   <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>KING</t>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>BLAKE</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>MILLER</t>
+  </si>
+  <si>
     <t>ALLEN</t>
   </si>
   <si>
-    <t>SALES</t>
+    <t>TURNER</t>
+  </si>
+  <si>
+    <t>CLARK</t>
   </si>
   <si>
     <t>WARD</t>
   </si>
   <si>
-    <t>JONES</t>
-  </si>
-  <si>
     <t>MARTIN</t>
   </si>
   <si>
-    <t>BLAKE</t>
-  </si>
-  <si>
-    <t>CLARK</t>
-  </si>
-  <si>
-    <t>ACCOUNTING</t>
-  </si>
-  <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>KING</t>
-  </si>
-  <si>
-    <t>TURNER</t>
-  </si>
-  <si>
     <t>ADAMS</t>
-  </si>
-  <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>MILLER</t>
   </si>
 </sst>
 </file>
@@ -453,121 +453,121 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>7499</v>
+        <v>7566</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>787200</v>
+        <v>1460725</v>
       </c>
       <c r="E3">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>7521</v>
+        <v>7839</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4">
-        <v>615000</v>
+        <v>2415000</v>
       </c>
       <c r="E4">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>7566</v>
+        <v>7698</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>1460725</v>
+        <v>1396500</v>
       </c>
       <c r="E5">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>7654</v>
+        <v>7900</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>606250</v>
+        <v>12350</v>
       </c>
       <c r="E6">
-        <v>485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7698</v>
+        <v>7788</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1396500</v>
+        <v>33000</v>
       </c>
       <c r="E7">
-        <v>490</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7782</v>
+        <v>7902</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1195600</v>
+        <v>1449000</v>
       </c>
       <c r="E8">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7788</v>
+        <v>7934</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>33000</v>
+        <v>625300</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -575,7 +575,7 @@
         <v>7788</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -589,87 +589,87 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7788</v>
+        <v>7499</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>1143000</v>
+        <v>787200</v>
       </c>
       <c r="E11">
-        <v>381</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7839</v>
+        <v>7844</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>2415000</v>
+        <v>727500</v>
       </c>
       <c r="E12">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>7844</v>
+        <v>7782</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>727500</v>
+        <v>1195600</v>
       </c>
       <c r="E13">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>7876</v>
+        <v>7521</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>458700</v>
+        <v>615000</v>
       </c>
       <c r="E14">
-        <v>417</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>7900</v>
+        <v>7788</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>12350</v>
+        <v>1143000</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -677,10 +677,10 @@
         <v>7900</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>445550</v>
@@ -691,36 +691,36 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7902</v>
+        <v>7654</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>1449000</v>
+        <v>606250</v>
       </c>
       <c r="E17">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>7934</v>
+        <v>7876</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>625300</v>
+        <v>458700</v>
       </c>
       <c r="E18">
-        <v>481</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
